--- a/xlsx_files/Race35.xlsx
+++ b/xlsx_files/Race35.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_project\xlsx_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B122392-6C44-4387-9EF0-4969C18238B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BFE316-D791-4E62-9CFA-AB5E83DF9158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>Track Name</t>
   </si>
@@ -60,13 +60,47 @@
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
+      <t>Kostiantyn Romanenko</t>
+    </r>
+  </si>
+  <si>
+    <t>Dominik Khoroshavin</t>
+  </si>
+  <si>
+    <t>Split</t>
+  </si>
+  <si>
+    <t>Oleksandr Kireyev</t>
+  </si>
+  <si>
+    <t>Best Qualifying Lap Time</t>
+  </si>
+  <si>
+    <t>Best Qualifying Lap Pilot</t>
+  </si>
+  <si>
+    <t>Best Race Lap Time</t>
+  </si>
+  <si>
+    <t>Best Race Lap Pilot</t>
+  </si>
+  <si>
+    <t>02:16.7470</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Noto Sans"/>
+        <family val="2"/>
+      </rPr>
       <t>Yurii Kit</t>
     </r>
   </si>
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -76,7 +110,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -86,7 +120,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -96,7 +130,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -106,7 +140,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -116,7 +150,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -126,7 +160,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -136,7 +170,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -146,7 +180,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -156,7 +190,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -166,7 +200,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -176,7 +210,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -186,7 +220,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -196,7 +230,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -206,7 +240,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -216,7 +250,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -226,7 +260,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -236,7 +270,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -246,7 +280,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -256,7 +290,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -266,7 +300,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -276,7 +310,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -286,7 +320,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -296,7 +330,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -306,7 +340,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -316,7 +350,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -326,7 +360,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -336,7 +370,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -346,7 +380,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -356,7 +390,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -366,7 +400,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -376,7 +410,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -386,7 +420,7 @@
   <si>
     <r>
       <rPr>
-        <sz val="7"/>
+        <sz val="10"/>
         <rFont val="Noto Sans"/>
         <family val="2"/>
       </rPr>
@@ -394,35 +428,14 @@
     </r>
   </si>
   <si>
-    <t>Dominik Khoroshavin</t>
-  </si>
-  <si>
-    <t>Split</t>
-  </si>
-  <si>
-    <t>Oleksandr Kireyev</t>
-  </si>
-  <si>
-    <t>Best Qualifying Lap Time</t>
-  </si>
-  <si>
-    <t>Best Qualifying Lap Pilot</t>
-  </si>
-  <si>
-    <t>Best Race Lap Time</t>
-  </si>
-  <si>
-    <t>Best Race Lap Pilot</t>
-  </si>
-  <si>
-    <t>02:16.7470</t>
+    <t>Oleksii Berkunskyi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +462,22 @@
       <name val="Noto Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Noto Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -470,7 +499,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -482,6 +511,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -764,14 +797,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="5.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.33203125" customWidth="1"/>
     <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.109375" bestFit="1" customWidth="1"/>
@@ -803,27 +836,27 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
       <c r="I1" t="s">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="J1" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="K1" t="s">
-        <v>49</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>9</v>
+      <c r="B2" s="5" t="s">
+        <v>18</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
@@ -841,295 +874,299 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>10</v>
+      <c r="B3" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>43</v>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>11</v>
+      <c r="B5" s="5" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
+      <c r="B6" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
+      <c r="B7" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
+      <c r="B8" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
+      <c r="B9" s="5" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
+      <c r="B10" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
+      <c r="B11" s="5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
+      <c r="B12" s="5" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
+      <c r="B13" s="5" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
+      <c r="B14" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
+      <c r="B15" s="5" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
+      <c r="B16" s="5" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>23</v>
+      <c r="B17" s="5" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="4" t="s">
-        <v>24</v>
+      <c r="B18" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>25</v>
+      <c r="B19" s="5" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
+      <c r="B20" s="5" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>27</v>
+      <c r="B21" s="5" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>28</v>
+      <c r="B22" s="5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="4" t="s">
-        <v>29</v>
+      <c r="B23" s="5" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>30</v>
+      <c r="B24" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>31</v>
+      <c r="B25" s="5" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="4" t="s">
-        <v>32</v>
+      <c r="B26" s="5" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="s">
-        <v>33</v>
+      <c r="B27" s="5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
-      <c r="B28" s="4" t="s">
-        <v>34</v>
+      <c r="B28" s="5" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
-      <c r="B29" s="4" t="s">
-        <v>35</v>
+      <c r="B29" s="6" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
-      <c r="B30" s="4" t="s">
-        <v>36</v>
+      <c r="B30" s="5" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
-      <c r="B31" s="4" t="s">
-        <v>37</v>
+      <c r="B31" s="5" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>45</v>
+      <c r="B32" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
-        <v>38</v>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>33</v>
       </c>
-      <c r="B34" s="4" t="s">
-        <v>39</v>
+      <c r="B34" s="5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>40</v>
+      <c r="B35" s="5" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>41</v>
+      <c r="B36" s="5" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>42</v>
+      <c r="B37" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="3"/>
+      <c r="A38" s="2">
+        <v>37</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="2"/>

--- a/xlsx_files/Race35.xlsx
+++ b/xlsx_files/Race35.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\Elo_new\xlsx_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36BFE316-D791-4E62-9CFA-AB5E83DF9158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67969BF-2A7A-4719-B67A-85ACD151A2D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="16680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
   <si>
     <t>Track Name</t>
   </si>
@@ -429,6 +429,9 @@
   </si>
   <si>
     <t>Oleksii Berkunskyi</t>
+  </si>
+  <si>
+    <t>02:24.4970</t>
   </si>
 </sst>
 </file>
@@ -797,8 +800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -865,13 +868,19 @@
         <v>8</v>
       </c>
       <c r="E2" s="1">
-        <v>45246</v>
+        <v>45238</v>
       </c>
       <c r="F2" t="s">
         <v>5</v>
       </c>
       <c r="G2">
         <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>22</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
